--- a/data/in/futR_Inputs.xlsx
+++ b/data/in/futR_Inputs.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kholsman/Documents/GitHub/futR/data/in/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie/GitHub_cloud/futR/data/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC1451FC-BA68-EC44-9E61-D78C8C4356B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15F9BD-7B11-864C-A0ED-8D35F61DB57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="1880" windowWidth="27640" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="8720" yWindow="1880" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="switches" sheetId="3" r:id="rId1"/>
     <sheet name="rec_data" sheetId="1" r:id="rId2"/>
-    <sheet name="covar_val" sheetId="2" r:id="rId3"/>
-    <sheet name="covar_val_sd" sheetId="7" r:id="rId4"/>
-    <sheet name="estparams" sheetId="5" r:id="rId5"/>
+    <sheet name="pre_post_spawning_effects" sheetId="8" r:id="rId3"/>
+    <sheet name="covar_val" sheetId="2" r:id="rId4"/>
+    <sheet name="covar_val_sd" sheetId="7" r:id="rId5"/>
+    <sheet name="estparams" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -826,10 +827,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1126,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,10 +1170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2009,11 +2006,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB97310-02CB-6E4B-A5C3-6C20A3AA8CEB}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(covar_val!B1&lt;&gt;"",covar_val!B1,"NA")</f>
+        <v>Btm_sal_tmp</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(covar_val!C1&lt;&gt;"",covar_val!C1,"NA")</f>
+        <v>ColdPool</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(covar_val!D1&lt;&gt;"",covar_val!D1,"NA")</f>
+        <v>fallZavg</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(covar_val!E1&lt;&gt;"",covar_val!E1,"NA")</f>
+        <v>springZavg</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2022,891 +2092,836 @@
     <col min="2" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="str">
-        <f>IF(covar_val!B4&lt;&gt;"",covar_val!B4,"NA")</f>
-        <v>Btm_sal_tmp</v>
-      </c>
-      <c r="C1" t="str">
-        <f>IF(covar_val!C4&lt;&gt;"",covar_val!C4,"NA")</f>
-        <v>ColdPool</v>
-      </c>
-      <c r="D1" t="str">
-        <f>IF(covar_val!D4&lt;&gt;"",covar_val!D4,"NA")</f>
-        <v>fallZavg</v>
-      </c>
-      <c r="E1" t="str">
-        <f>IF(covar_val!E4&lt;&gt;"",covar_val!E4,"NA")</f>
-        <v>springZavg</v>
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2">
+        <v>1970</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-0.35308198865700302</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.17373431635450701</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.82884198927881902</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.29822149794845798</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3">
+        <v>1971</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.7268630092034101</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>-0.16830287727785101</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-0.27153823126453902</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>0.76083927708388899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1972</v>
+      </c>
+      <c r="B4">
+        <v>4.6616632500163204</v>
+      </c>
+      <c r="C4">
+        <v>0.43926092391056798</v>
+      </c>
+      <c r="D4">
+        <v>0.17221798607198799</v>
+      </c>
+      <c r="E4">
+        <v>0.31380720494974801</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="B5">
-        <v>-0.35308198865700302</v>
+        <v>3.92530059682595</v>
       </c>
       <c r="C5">
-        <v>-0.17373431635450701</v>
+        <v>-0.23564786276258701</v>
       </c>
       <c r="D5">
-        <v>0.82884198927881902</v>
+        <v>-0.77885366623132002</v>
       </c>
       <c r="E5">
-        <v>-0.29822149794845798</v>
+        <v>0.122231046412987</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="B6">
-        <v>1.7268630092034101</v>
+        <v>3.6875704067649799</v>
       </c>
       <c r="C6">
-        <v>-0.16830287727785101</v>
+        <v>0.29491641936968299</v>
       </c>
       <c r="D6">
-        <v>-0.27153823126453902</v>
+        <v>0.127721447874203</v>
       </c>
       <c r="E6">
-        <v>0.76083927708388899</v>
+        <v>0.66908893355671595</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="B7">
-        <v>4.6616632500163204</v>
+        <v>4.7242773962057596</v>
       </c>
       <c r="C7">
-        <v>0.43926092391056798</v>
+        <v>0.53202274397201299</v>
       </c>
       <c r="D7">
-        <v>0.17221798607198799</v>
+        <v>0.13787568257952801</v>
       </c>
       <c r="E7">
-        <v>0.31380720494974801</v>
+        <v>7.49895232368471E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B8">
-        <v>3.92530059682595</v>
+        <v>3.7867246570059798</v>
       </c>
       <c r="C8">
-        <v>-0.23564786276258701</v>
+        <v>0.78594667383555095</v>
       </c>
       <c r="D8">
-        <v>-0.77885366623132002</v>
+        <v>0.39199392979218101</v>
       </c>
       <c r="E8">
-        <v>0.122231046412987</v>
+        <v>-0.40698288885567302</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B9">
-        <v>3.6875704067649799</v>
+        <v>2.9188750354091302</v>
       </c>
       <c r="C9">
-        <v>0.29491641936968299</v>
+        <v>-1.42043019878757</v>
       </c>
       <c r="D9">
-        <v>0.127721447874203</v>
+        <v>-0.76035445081901898</v>
       </c>
       <c r="E9">
-        <v>0.66908893355671595</v>
+        <v>0.95853144068592799</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="B10">
-        <v>4.7242773962057596</v>
+        <v>3.39041714528308</v>
       </c>
       <c r="C10">
-        <v>0.53202274397201299</v>
+        <v>-0.85370537672371105</v>
       </c>
       <c r="D10">
-        <v>0.13787568257952801</v>
+        <v>-0.42279802341782702</v>
       </c>
       <c r="E10">
-        <v>7.49895232368471E-2</v>
+        <v>1.03471078763205</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B11">
-        <v>3.7867246570059798</v>
+        <v>6.0094236994410704</v>
       </c>
       <c r="C11">
-        <v>0.78594667383555095</v>
+        <v>-2.43268774063612</v>
       </c>
       <c r="D11">
-        <v>0.39199392979218101</v>
+        <v>-0.71368804074895698</v>
       </c>
       <c r="E11">
-        <v>-0.40698288885567302</v>
+        <v>1.7848122233156201</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B12">
-        <v>2.9188750354091302</v>
+        <v>4.2872847472457298</v>
       </c>
       <c r="C12">
-        <v>-1.42043019878757</v>
+        <v>-1.72421746032671</v>
       </c>
       <c r="D12">
-        <v>-0.76035445081901898</v>
+        <v>0.1527535346968</v>
       </c>
       <c r="E12">
-        <v>0.95853144068592799</v>
+        <v>1.5912444474813301</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="B13">
-        <v>3.39041714528308</v>
+        <v>3.3897100391235302</v>
       </c>
       <c r="C13">
-        <v>-0.85370537672371105</v>
+        <v>-1.0383812961629</v>
       </c>
       <c r="D13">
-        <v>-0.42279802341782702</v>
+        <v>-0.96784438830193398</v>
       </c>
       <c r="E13">
-        <v>1.03471078763205</v>
+        <v>1.4419754580188899</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="B14">
-        <v>6.0094236994410704</v>
+        <v>3.69876423272407</v>
       </c>
       <c r="C14">
-        <v>-2.43268774063612</v>
+        <v>-6.6740461380824498E-2</v>
       </c>
       <c r="D14">
-        <v>-0.71368804074895698</v>
+        <v>0.69907059559098705</v>
       </c>
       <c r="E14">
-        <v>1.7848122233156201</v>
+        <v>0.61452149066084805</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="B15">
-        <v>4.2872847472457298</v>
+        <v>4.09215253882501</v>
       </c>
       <c r="C15">
-        <v>-1.72421746032671</v>
+        <v>-1.6276505130344401</v>
       </c>
       <c r="D15">
-        <v>0.1527535346968</v>
+        <v>-0.67256905328453298</v>
       </c>
       <c r="E15">
-        <v>1.5912444474813301</v>
+        <v>1.6989224503845599</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B16">
-        <v>3.3897100391235302</v>
+        <v>5.5470589974119902</v>
       </c>
       <c r="C16">
-        <v>-1.0383812961629</v>
+        <v>-0.20861512033601801</v>
       </c>
       <c r="D16">
-        <v>-0.96784438830193398</v>
+        <v>-0.12377452493848699</v>
       </c>
       <c r="E16">
-        <v>1.4419754580188899</v>
+        <v>0.53644774994243605</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="B17">
-        <v>3.69876423272407</v>
+        <v>4.9017389629479897</v>
       </c>
       <c r="C17">
-        <v>-6.6740461380824498E-2</v>
+        <v>0.62689469906523199</v>
       </c>
       <c r="D17">
-        <v>0.69907059559098705</v>
+        <v>2.2798615559850501E-2</v>
       </c>
       <c r="E17">
-        <v>0.61452149066084805</v>
+        <v>-9.2599923403496501E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="B18">
-        <v>4.09215253882501</v>
+        <v>5.3444250389082697</v>
       </c>
       <c r="C18">
-        <v>-1.6276505130344401</v>
+        <v>-0.25157427863099102</v>
       </c>
       <c r="D18">
-        <v>-0.67256905328453298</v>
+        <v>-0.74534236098820605</v>
       </c>
       <c r="E18">
-        <v>1.6989224503845599</v>
+        <v>0.84970988378386503</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="B19">
-        <v>5.5470589974119902</v>
+        <v>4.2846801479558403</v>
       </c>
       <c r="C19">
-        <v>-0.20861512033601801</v>
+        <v>-0.92698316278237702</v>
       </c>
       <c r="D19">
-        <v>-0.12377452493848699</v>
+        <v>-0.64887668282029598</v>
       </c>
       <c r="E19">
-        <v>0.53644774994243605</v>
+        <v>0.793180427705658</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B20">
-        <v>4.9017389629479897</v>
+        <v>5.0648461419864503</v>
       </c>
       <c r="C20">
-        <v>0.62689469906523199</v>
+        <v>-0.28256341905865601</v>
       </c>
       <c r="D20">
-        <v>2.2798615559850501E-2</v>
+        <v>-0.77910452952253095</v>
       </c>
       <c r="E20">
-        <v>-9.2599923403496501E-2</v>
+        <v>0.56180311183059495</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="B21">
-        <v>5.3444250389082697</v>
+        <v>6.40503149635797</v>
       </c>
       <c r="C21">
-        <v>-0.25157427863099102</v>
+        <v>6.3960601305216996E-2</v>
       </c>
       <c r="D21">
-        <v>-0.74534236098820605</v>
+        <v>0.298050699713789</v>
       </c>
       <c r="E21">
-        <v>0.84970988378386503</v>
+        <v>0.38659313864017802</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="B22">
-        <v>4.2846801479558403</v>
+        <v>4.4763493177006302</v>
       </c>
       <c r="C22">
-        <v>-0.92698316278237702</v>
+        <v>-0.27915665605376699</v>
       </c>
       <c r="D22">
-        <v>-0.64887668282029598</v>
+        <v>0.46764138073330902</v>
       </c>
       <c r="E22">
-        <v>0.793180427705658</v>
+        <v>0.54758326476739605</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="B23">
-        <v>5.0648461419864503</v>
+        <v>2.99119744024819</v>
       </c>
       <c r="C23">
-        <v>-0.28256341905865601</v>
+        <v>-1.1261028342374</v>
       </c>
       <c r="D23">
-        <v>-0.77910452952253095</v>
+        <v>-0.39468200580590501</v>
       </c>
       <c r="E23">
-        <v>0.56180311183059495</v>
+        <v>1.5997645491040799</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B24">
-        <v>6.40503149635797</v>
+        <v>5.7804542533569601</v>
       </c>
       <c r="C24">
-        <v>6.3960601305216996E-2</v>
+        <v>0.41670734091170503</v>
       </c>
       <c r="D24">
-        <v>0.298050699713789</v>
+        <v>-0.83851566938425504</v>
       </c>
       <c r="E24">
-        <v>0.38659313864017802</v>
+        <v>0.449976525169407</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="B25">
-        <v>4.4763493177006302</v>
+        <v>4.3889433396984501</v>
       </c>
       <c r="C25">
-        <v>-0.27915665605376699</v>
+        <v>-1.89715302773877</v>
       </c>
       <c r="D25">
-        <v>0.46764138073330902</v>
+        <v>-0.468628187362707</v>
       </c>
       <c r="E25">
-        <v>0.54758326476739605</v>
+        <v>1.7385757851269701</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B26">
-        <v>2.99119744024819</v>
+        <v>4.1733912851098802</v>
       </c>
       <c r="C26">
-        <v>-1.1261028342374</v>
+        <v>-0.47802953788126501</v>
       </c>
       <c r="D26">
-        <v>-0.39468200580590501</v>
+        <v>0.201877690721984</v>
       </c>
       <c r="E26">
-        <v>1.5997645491040799</v>
+        <v>0.59594268457379795</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B27">
-        <v>5.7804542533569601</v>
+        <v>2.8732895255067898</v>
       </c>
       <c r="C27">
-        <v>0.41670734091170503</v>
+        <v>0.14023398671353501</v>
       </c>
       <c r="D27">
-        <v>-0.83851566938425504</v>
+        <v>2.3160497048502902E-2</v>
       </c>
       <c r="E27">
-        <v>0.449976525169407</v>
+        <v>0.220904612541866</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="B28">
-        <v>4.3889433396984501</v>
+        <v>1.3411824634763301</v>
       </c>
       <c r="C28">
-        <v>-1.89715302773877</v>
+        <v>-1.23369240395268</v>
       </c>
       <c r="D28">
-        <v>-0.468628187362707</v>
+        <v>-0.56519391639607597</v>
       </c>
       <c r="E28">
-        <v>1.7385757851269701</v>
+        <v>1.3542971008120099</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B29">
-        <v>4.1733912851098802</v>
+        <v>-0.20240251782146099</v>
       </c>
       <c r="C29">
-        <v>-0.47802953788126501</v>
+        <v>0.14083340859972299</v>
       </c>
       <c r="D29">
-        <v>0.201877690721984</v>
+        <v>-2.2227060611141599E-2</v>
       </c>
       <c r="E29">
-        <v>0.59594268457379795</v>
+        <v>0.87006101442273398</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B30">
-        <v>2.8732895255067898</v>
+        <v>0.34305710785148902</v>
       </c>
       <c r="C30">
-        <v>0.14023398671353501</v>
+        <v>-1.9454144291809301</v>
       </c>
       <c r="D30">
-        <v>2.3160497048502902E-2</v>
+        <v>0.80640613149885598</v>
       </c>
       <c r="E30">
-        <v>0.220904612541866</v>
+        <v>0.82557628115077497</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="B31">
-        <v>1.3411824634763301</v>
+        <v>0.75416059327433704</v>
       </c>
       <c r="C31">
-        <v>-1.23369240395268</v>
+        <v>0.780670579532729</v>
       </c>
       <c r="D31">
-        <v>-0.56519391639607597</v>
+        <v>-4.9814236233327203E-2</v>
       </c>
       <c r="E31">
-        <v>1.3542971008120099</v>
+        <v>-0.24309598506970301</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B32">
-        <v>-0.20240251782146099</v>
+        <v>0.62019543667653998</v>
       </c>
       <c r="C32">
-        <v>0.14083340859972299</v>
+        <v>-0.45949470715129498</v>
       </c>
       <c r="D32">
-        <v>-2.2227060611141599E-2</v>
+        <v>-0.14423942577684601</v>
       </c>
       <c r="E32">
-        <v>0.87006101442273398</v>
+        <v>1.1060968348670099</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="B33">
-        <v>0.34305710785148902</v>
+        <v>0.10413653081974</v>
       </c>
       <c r="C33">
-        <v>-1.9454144291809301</v>
+        <v>-0.73328763799317598</v>
       </c>
       <c r="D33">
-        <v>0.80640613149885598</v>
+        <v>-0.52546862207235001</v>
       </c>
       <c r="E33">
-        <v>0.82557628115077497</v>
+        <v>0.75514415320976003</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B34">
-        <v>0.75416059327433704</v>
+        <v>-0.26807516821940203</v>
       </c>
       <c r="C34">
-        <v>0.780670579532729</v>
+        <v>-1.3232748003897301</v>
       </c>
       <c r="D34">
-        <v>-4.9814236233327203E-2</v>
+        <v>-1.0171846684019501</v>
       </c>
       <c r="E34">
-        <v>-0.24309598506970301</v>
+        <v>1.6644158295070901</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B35">
-        <v>0.62019543667653998</v>
+        <v>-0.10603130172662099</v>
       </c>
       <c r="C35">
-        <v>-0.45949470715129498</v>
+        <v>-1.63185892709679</v>
       </c>
       <c r="D35">
-        <v>-0.14423942577684601</v>
+        <v>-1.9385301323689501</v>
       </c>
       <c r="E35">
-        <v>1.1060968348670099</v>
+        <v>1.4757411665994</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B36">
-        <v>0.10413653081974</v>
+        <v>-0.31883225660694903</v>
       </c>
       <c r="C36">
-        <v>-0.73328763799317598</v>
+        <v>-1.0276857742724399</v>
       </c>
       <c r="D36">
-        <v>-0.52546862207235001</v>
+        <v>-1.92785058220009</v>
       </c>
       <c r="E36">
-        <v>0.75514415320976003</v>
+        <v>1.15487374589473</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B37">
-        <v>-0.26807516821940203</v>
+        <v>-7.9938402161274E-2</v>
       </c>
       <c r="C37">
-        <v>-1.3232748003897301</v>
+        <v>-1.3087305459918199</v>
       </c>
       <c r="D37">
-        <v>-1.0171846684019501</v>
+        <v>-1.50710826635243</v>
       </c>
       <c r="E37">
-        <v>1.6644158295070901</v>
+        <v>0.83234541920538097</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B38">
-        <v>-0.10603130172662099</v>
+        <v>-1.51293480398466</v>
       </c>
       <c r="C38">
-        <v>-1.63185892709679</v>
+        <v>8.8000955417054799E-2</v>
       </c>
       <c r="D38">
-        <v>-1.9385301323689501</v>
+        <v>0.66267149828580096</v>
       </c>
       <c r="E38">
-        <v>1.4757411665994</v>
+        <v>0.18140258570085099</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B39">
-        <v>-0.31883225660694903</v>
+        <v>0.94781699476271897</v>
       </c>
       <c r="C39">
-        <v>-1.0276857742724399</v>
+        <v>0.69633678573850699</v>
       </c>
       <c r="D39">
-        <v>-1.92785058220009</v>
+        <v>-0.854745465072833</v>
       </c>
       <c r="E39">
-        <v>1.15487374589473</v>
+        <v>-0.77883598423419298</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B40">
-        <v>-7.9938402161274E-2</v>
+        <v>0.19021443420039899</v>
       </c>
       <c r="C40">
-        <v>-1.3087305459918199</v>
+        <v>0.73824265789362897</v>
       </c>
       <c r="D40">
-        <v>-1.50710826635243</v>
+        <v>-0.16102207620402501</v>
       </c>
       <c r="E40">
-        <v>0.83234541920538097</v>
+        <v>-0.75943865225848095</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B41">
-        <v>-1.51293480398466</v>
+        <v>-0.44389376972531602</v>
       </c>
       <c r="C41">
-        <v>8.8000955417054799E-2</v>
+        <v>0.72643210027208105</v>
       </c>
       <c r="D41">
-        <v>0.66267149828580096</v>
+        <v>0.60527420566864198</v>
       </c>
       <c r="E41">
-        <v>0.18140258570085099</v>
+        <v>-0.48642512980814501</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B42">
-        <v>0.94781699476271897</v>
+        <v>1.94523751849071</v>
       </c>
       <c r="C42">
-        <v>0.69633678573850699</v>
+        <v>0.63001076388815802</v>
       </c>
       <c r="D42">
-        <v>-0.854745465072833</v>
+        <v>-0.21817076332288901</v>
       </c>
       <c r="E42">
-        <v>-0.77883598423419298</v>
+        <v>-0.42746215062389498</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B43">
-        <v>0.19021443420039899</v>
+        <v>0.71320661924088102</v>
       </c>
       <c r="C43">
-        <v>0.73824265789362897</v>
+        <v>0.14411073458618401</v>
       </c>
       <c r="D43">
-        <v>-0.16102207620402501</v>
+        <v>0.91066871708194497</v>
       </c>
       <c r="E43">
-        <v>-0.75943865225848095</v>
+        <v>-0.75804368705644998</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B44">
-        <v>-0.44389376972531602</v>
+        <v>8.1404896677112107E-2</v>
       </c>
       <c r="C44">
-        <v>0.72643210027208105</v>
+        <v>0.88008648238230003</v>
       </c>
       <c r="D44">
-        <v>0.60527420566864198</v>
+        <v>1.80802897001565</v>
       </c>
       <c r="E44">
-        <v>-0.48642512980814501</v>
+        <v>-1.2726108014144699</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B45">
-        <v>1.94523751849071</v>
+        <v>-1.0404703858487201</v>
       </c>
       <c r="C45">
-        <v>0.63001076388815802</v>
+        <v>0.52143377908261401</v>
       </c>
       <c r="D45">
-        <v>-0.21817076332288901</v>
+        <v>0.58596413706682204</v>
       </c>
       <c r="E45">
-        <v>-0.42746215062389498</v>
+        <v>1.6003140390591902E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B46">
-        <v>0.71320661924088102</v>
+        <v>-0.34414432599892603</v>
       </c>
       <c r="C46">
-        <v>0.14411073458618401</v>
+        <v>-1.2620967647630801</v>
       </c>
       <c r="D46">
-        <v>0.91066871708194497</v>
+        <v>-0.80838804481498405</v>
       </c>
       <c r="E46">
-        <v>-0.75804368705644998</v>
+        <v>1.3186779554238199</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B47">
-        <v>8.1404896677112107E-2</v>
+        <v>-0.952072450291224</v>
       </c>
       <c r="C47">
-        <v>0.88008648238230003</v>
+        <v>-1.14724820170571</v>
       </c>
       <c r="D47">
-        <v>1.80802897001565</v>
+        <v>-1.0482300905428099</v>
       </c>
       <c r="E47">
-        <v>-1.2726108014144699</v>
+        <v>1.3602006474807899</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B48">
-        <v>-1.0404703858487201</v>
+        <v>0.415635272476786</v>
       </c>
       <c r="C48">
-        <v>0.52143377908261401</v>
+        <v>-2.01530929279174</v>
       </c>
       <c r="D48">
-        <v>0.58596413706682204</v>
+        <v>-1.48205108816132</v>
       </c>
       <c r="E48">
-        <v>1.6003140390591902E-2</v>
+        <v>1.6065320763995901</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B49">
-        <v>-0.34414432599892603</v>
+        <v>0.83382668694276996</v>
       </c>
       <c r="C49">
-        <v>-1.2620967647630801</v>
+        <v>-6.24224656593119E-2</v>
       </c>
       <c r="D49">
-        <v>-0.80838804481498405</v>
+        <v>2.0115746296908799</v>
       </c>
       <c r="E49">
-        <v>1.3186779554238199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2015</v>
-      </c>
-      <c r="B50">
-        <v>-0.952072450291224</v>
-      </c>
-      <c r="C50">
-        <v>-1.14724820170571</v>
-      </c>
-      <c r="D50">
-        <v>-1.0482300905428099</v>
-      </c>
-      <c r="E50">
-        <v>1.3602006474807899</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2016</v>
-      </c>
-      <c r="B51">
-        <v>0.415635272476786</v>
-      </c>
-      <c r="C51">
-        <v>-2.01530929279174</v>
-      </c>
-      <c r="D51">
-        <v>-1.48205108816132</v>
-      </c>
-      <c r="E51">
-        <v>1.6065320763995901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2017</v>
-      </c>
-      <c r="B52">
-        <v>0.83382668694276996</v>
-      </c>
-      <c r="C52">
-        <v>-6.24224656593119E-2</v>
-      </c>
-      <c r="D52">
-        <v>2.0115746296908799</v>
-      </c>
-      <c r="E52">
         <v>0.72347749307115905</v>
       </c>
     </row>
@@ -2915,8 +2930,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3767,8 +3782,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/in/futR_Inputs.xlsx
+++ b/data/in/futR_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie/GitHub_cloud/futR/data/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15F9BD-7B11-864C-A0ED-8D35F61DB57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6A70F-B3CB-9D4C-A9D6-6DCF0993315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="1880" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10580" yWindow="2220" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="switches" sheetId="3" r:id="rId1"/>
@@ -73,7 +73,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -83,7 +83,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Should the model estimate this parameter? 
 </t>
@@ -171,9 +171,6 @@
     <t>estimate</t>
   </si>
   <si>
-    <t>startVal</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>rec_year</t>
+  </si>
+  <si>
+    <t>startVal(DEFUNCT)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1134,15 +1134,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1E-4</v>
@@ -1184,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="str">
         <f>IF(covar_val!B1&lt;&gt;"",covar_val!B1,"NA")</f>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2082,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3786,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3799,7 +3799,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -3808,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
